--- a/medicine/Sexualité et sexologie/Choc_culturel/Choc_culturel.xlsx
+++ b/medicine/Sexualité et sexologie/Choc_culturel/Choc_culturel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le choc culturel est la désorientation ressentie par une personne confrontée à un mode de vie qui ne lui est pas familier. Il peut être éprouvé lors de la visite d'un pays étranger, face à l'immigration, lors d'un changement de milieu social ou simplement de mode de vie[1].
-Le concept (culture shock) a été défini pour la première fois par l'anthropologue canadien Kalervo Oberg (en) en 1960[2]. 
-Les sources et les formes du choc culturel les plus courantes comprennent : la surcharge informationnelle, la barrière linguistique, le fossé générationnel, le fossé technologique (en) et le mal du pays[3]. Il n'y a pas de moyen de prévenir complètement le choc culturel, dans la mesure où des individus différents réagissent différemment aux contrastes culturels[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le choc culturel est la désorientation ressentie par une personne confrontée à un mode de vie qui ne lui est pas familier. Il peut être éprouvé lors de la visite d'un pays étranger, face à l'immigration, lors d'un changement de milieu social ou simplement de mode de vie.
+Le concept (culture shock) a été défini pour la première fois par l'anthropologue canadien Kalervo Oberg (en) en 1960. 
+Les sources et les formes du choc culturel les plus courantes comprennent : la surcharge informationnelle, la barrière linguistique, le fossé générationnel, le fossé technologique (en) et le mal du pays. Il n'y a pas de moyen de prévenir complètement le choc culturel, dans la mesure où des individus différents réagissent différemment aux contrastes culturels.
 </t>
         </is>
       </c>
